--- a/data/pca/factorExposure/factorExposure_2011-02-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.009873162785684148</v>
+        <v>0.01685714057506188</v>
       </c>
       <c r="C2">
-        <v>2.519731838629152e-05</v>
+        <v>-0.007502223807325526</v>
       </c>
       <c r="D2">
-        <v>-0.0257760629321408</v>
+        <v>0.005167659770285305</v>
       </c>
       <c r="E2">
-        <v>0.02248814015115867</v>
+        <v>0.01757377195447262</v>
       </c>
       <c r="F2">
-        <v>0.01049163622841854</v>
+        <v>0.001118391361904951</v>
       </c>
       <c r="G2">
-        <v>-0.01359833739244052</v>
+        <v>-0.01743097797107355</v>
       </c>
       <c r="H2">
-        <v>-0.05242118697581333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.01358034628107124</v>
+      </c>
+      <c r="I2">
+        <v>-0.005463116066078885</v>
+      </c>
+      <c r="J2">
+        <v>0.02430254730171174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1094490303048161</v>
+        <v>0.1242022819165839</v>
       </c>
       <c r="C4">
-        <v>0.01566256730094394</v>
+        <v>-0.0535293584159301</v>
       </c>
       <c r="D4">
-        <v>-0.06194288745923151</v>
+        <v>0.008742889704169116</v>
       </c>
       <c r="E4">
-        <v>0.05529067354684539</v>
+        <v>0.000660977320803803</v>
       </c>
       <c r="F4">
-        <v>0.0158568549539179</v>
+        <v>-0.001944359894081677</v>
       </c>
       <c r="G4">
-        <v>-0.03083167060232627</v>
+        <v>0.01626525872671541</v>
       </c>
       <c r="H4">
-        <v>0.03655882445451307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.05884364603826543</v>
+      </c>
+      <c r="I4">
+        <v>-0.1151236783269722</v>
+      </c>
+      <c r="J4">
+        <v>-0.0682372133527336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1275994474262025</v>
+        <v>0.1190402587584063</v>
       </c>
       <c r="C6">
-        <v>0.03100276101412892</v>
+        <v>0.003257063984071865</v>
       </c>
       <c r="D6">
-        <v>0.04334813132094005</v>
+        <v>0.01579544195726844</v>
       </c>
       <c r="E6">
-        <v>0.01277442843246623</v>
+        <v>0.0138175247178329</v>
       </c>
       <c r="F6">
-        <v>-0.2828821242687733</v>
+        <v>0.02941992548845224</v>
       </c>
       <c r="G6">
-        <v>0.1086219386639703</v>
+        <v>0.05214297854187382</v>
       </c>
       <c r="H6">
-        <v>0.2352713174765227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.0475887388113833</v>
+      </c>
+      <c r="I6">
+        <v>-0.04078797115833272</v>
+      </c>
+      <c r="J6">
+        <v>0.08112232567362945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.08819193325703401</v>
+        <v>0.08139405190869733</v>
       </c>
       <c r="C7">
-        <v>0.03641931978868831</v>
+        <v>-0.04911867651313648</v>
       </c>
       <c r="D7">
-        <v>-0.02446910349927426</v>
+        <v>0.03600878899777613</v>
       </c>
       <c r="E7">
-        <v>0.0503138881098815</v>
+        <v>0.04284752383537983</v>
       </c>
       <c r="F7">
-        <v>-0.002493245120227903</v>
+        <v>0.01107088274994438</v>
       </c>
       <c r="G7">
-        <v>-0.002817849206028047</v>
+        <v>-0.03384914043910076</v>
       </c>
       <c r="H7">
-        <v>0.01657735383484626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-0.03723303517966745</v>
+      </c>
+      <c r="I7">
+        <v>-0.02293678479887773</v>
+      </c>
+      <c r="J7">
+        <v>-0.06887673584436174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04027759318443806</v>
+        <v>0.05238128258736138</v>
       </c>
       <c r="C8">
-        <v>-0.04156242426338204</v>
+        <v>-0.006823396574025448</v>
       </c>
       <c r="D8">
-        <v>-0.06395472625417749</v>
+        <v>0.006923458742797966</v>
       </c>
       <c r="E8">
-        <v>0.1006989445485307</v>
+        <v>0.02121547256140484</v>
       </c>
       <c r="F8">
-        <v>-0.001605233878339463</v>
+        <v>-0.0213693719501907</v>
       </c>
       <c r="G8">
-        <v>-0.1698787566544913</v>
+        <v>0.02404113015216238</v>
       </c>
       <c r="H8">
-        <v>0.1002881356674522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.07369195693891953</v>
+      </c>
+      <c r="I8">
+        <v>-0.0962261341792775</v>
+      </c>
+      <c r="J8">
+        <v>0.004043439415278102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.09584122636871512</v>
+        <v>0.09723913323475186</v>
       </c>
       <c r="C9">
-        <v>0.03203905381269857</v>
+        <v>-0.0508801037265377</v>
       </c>
       <c r="D9">
-        <v>-0.03736232338909751</v>
+        <v>-0.007758412912624763</v>
       </c>
       <c r="E9">
-        <v>0.0499498370796442</v>
+        <v>0.01307388725217758</v>
       </c>
       <c r="F9">
-        <v>0.006706010278070536</v>
+        <v>-0.0125219745183028</v>
       </c>
       <c r="G9">
-        <v>-0.07515309682381438</v>
+        <v>0.002432861564705354</v>
       </c>
       <c r="H9">
-        <v>0.06129012005726625</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.07104301706042819</v>
+      </c>
+      <c r="I9">
+        <v>-0.09349580734416864</v>
+      </c>
+      <c r="J9">
+        <v>-0.03593756789052405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.04035250267736899</v>
+        <v>0.06763581910325484</v>
       </c>
       <c r="C10">
-        <v>-0.1827463057811143</v>
+        <v>0.1891984751907815</v>
       </c>
       <c r="D10">
-        <v>-0.008274966893287014</v>
+        <v>-0.007054379688141093</v>
       </c>
       <c r="E10">
-        <v>0.0984825756524418</v>
+        <v>0.001314334966998145</v>
       </c>
       <c r="F10">
-        <v>-0.03090552864310219</v>
+        <v>0.008395526509945515</v>
       </c>
       <c r="G10">
-        <v>0.01282378350829488</v>
+        <v>-0.06226371418481226</v>
       </c>
       <c r="H10">
-        <v>0.04590943762588715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.02309683291282985</v>
+      </c>
+      <c r="I10">
+        <v>-0.01054854534971589</v>
+      </c>
+      <c r="J10">
+        <v>-0.02670489226573898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.07648805335928772</v>
+        <v>0.09298349416838833</v>
       </c>
       <c r="C11">
-        <v>0.05576654067577392</v>
+        <v>-0.06871019368617926</v>
       </c>
       <c r="D11">
-        <v>0.02377126043176781</v>
+        <v>0.02855344460527311</v>
       </c>
       <c r="E11">
-        <v>0.01942393204177553</v>
+        <v>0.04274072109921449</v>
       </c>
       <c r="F11">
-        <v>0.05318181986545543</v>
+        <v>-0.06222851608778024</v>
       </c>
       <c r="G11">
-        <v>-0.1384023354752302</v>
+        <v>0.02639199573798228</v>
       </c>
       <c r="H11">
-        <v>-0.03197756423775342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-0.08907429838519554</v>
+      </c>
+      <c r="I11">
+        <v>-0.1015775089108241</v>
+      </c>
+      <c r="J11">
+        <v>0.01070636824942121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0761011250654639</v>
+        <v>0.09529032902422541</v>
       </c>
       <c r="C12">
-        <v>0.03318558543502544</v>
+        <v>-0.06916085840422424</v>
       </c>
       <c r="D12">
-        <v>-0.01114095521257509</v>
+        <v>0.02956982815320727</v>
       </c>
       <c r="E12">
-        <v>0.009585170863374985</v>
+        <v>0.03997353050303333</v>
       </c>
       <c r="F12">
-        <v>0.005029706002190285</v>
+        <v>-0.07878490675146474</v>
       </c>
       <c r="G12">
-        <v>-0.1467450009860041</v>
+        <v>0.01085475901960088</v>
       </c>
       <c r="H12">
-        <v>-0.0283697473723779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>-0.09291337748647194</v>
+      </c>
+      <c r="I12">
+        <v>-0.0699374568420046</v>
+      </c>
+      <c r="J12">
+        <v>0.03199962075752344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06111777060524464</v>
+        <v>0.04849272081460426</v>
       </c>
       <c r="C13">
-        <v>0.006600701883953375</v>
+        <v>-0.01891197321279484</v>
       </c>
       <c r="D13">
-        <v>-0.02364657919783537</v>
+        <v>-0.02911541571880765</v>
       </c>
       <c r="E13">
-        <v>0.01315095308727558</v>
+        <v>0.009726761436569149</v>
       </c>
       <c r="F13">
-        <v>0.0527764343790092</v>
+        <v>0.01100853680588181</v>
       </c>
       <c r="G13">
-        <v>-0.07920967722231675</v>
+        <v>0.01605986923002492</v>
       </c>
       <c r="H13">
-        <v>0.02445688859436979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.07118122989568609</v>
+      </c>
+      <c r="I13">
+        <v>-0.04568423037970772</v>
+      </c>
+      <c r="J13">
+        <v>0.001785091615468745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0523533098686095</v>
+        <v>0.03316489685157241</v>
       </c>
       <c r="C14">
-        <v>0.005541985979914667</v>
+        <v>-0.006090860034587435</v>
       </c>
       <c r="D14">
-        <v>-0.01680360631852711</v>
+        <v>0.00558866050762621</v>
       </c>
       <c r="E14">
-        <v>0.04845607960911531</v>
+        <v>0.002150077706826265</v>
       </c>
       <c r="F14">
-        <v>0.01015913095263604</v>
+        <v>-0.01671819677581031</v>
       </c>
       <c r="G14">
-        <v>-0.02098533679848182</v>
+        <v>-0.004048899916973989</v>
       </c>
       <c r="H14">
-        <v>0.162700099300957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.03041960432898835</v>
+      </c>
+      <c r="I14">
+        <v>-0.04830585022256487</v>
+      </c>
+      <c r="J14">
+        <v>-0.1113959272989289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.03770459392220685</v>
+        <v>0.03167172521117272</v>
       </c>
       <c r="C15">
-        <v>-0.01147788227973508</v>
+        <v>-0.01560214706249142</v>
       </c>
       <c r="D15">
-        <v>-0.004670236547904314</v>
+        <v>-0.0100268184490451</v>
       </c>
       <c r="E15">
-        <v>0.02106101544012555</v>
+        <v>0.01615028780390569</v>
       </c>
       <c r="F15">
-        <v>0.0005035899389919913</v>
+        <v>0.02655016915967443</v>
       </c>
       <c r="G15">
-        <v>-0.0007263036753217002</v>
+        <v>0.006568563081836226</v>
       </c>
       <c r="H15">
-        <v>0.0745576531711126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.04744210199959471</v>
+      </c>
+      <c r="I15">
+        <v>-0.01981998979302597</v>
+      </c>
+      <c r="J15">
+        <v>-0.04377237320861679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.0849413947915629</v>
+        <v>0.09798288528066725</v>
       </c>
       <c r="C16">
-        <v>0.0627221095025341</v>
+        <v>-0.06696869743672181</v>
       </c>
       <c r="D16">
-        <v>-0.02312550983166718</v>
+        <v>0.03926965975626313</v>
       </c>
       <c r="E16">
-        <v>0.02072307765866187</v>
+        <v>0.04977205574228207</v>
       </c>
       <c r="F16">
-        <v>0.05266583875042416</v>
+        <v>-0.06019666413582036</v>
       </c>
       <c r="G16">
-        <v>-0.1219128449045658</v>
+        <v>0.02100485406371673</v>
       </c>
       <c r="H16">
-        <v>-0.02811556004473726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>-0.1002277275724206</v>
+      </c>
+      <c r="I16">
+        <v>-0.07808055189517642</v>
+      </c>
+      <c r="J16">
+        <v>-0.0003133034445750407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.05685582471655502</v>
+        <v>0.05566663269956339</v>
       </c>
       <c r="C20">
-        <v>0.0150240905800171</v>
+        <v>-0.03091896281141265</v>
       </c>
       <c r="D20">
-        <v>0.01267714346931018</v>
+        <v>0.03173593599599086</v>
       </c>
       <c r="E20">
-        <v>0.01764171544094764</v>
+        <v>0.004499822173393565</v>
       </c>
       <c r="F20">
-        <v>0.009082699276736968</v>
+        <v>0.006548334950137716</v>
       </c>
       <c r="G20">
-        <v>-0.1070479648878988</v>
+        <v>0.007485741956134057</v>
       </c>
       <c r="H20">
-        <v>0.01540369519388232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.04255578262782067</v>
+      </c>
+      <c r="I20">
+        <v>-0.0419019950302237</v>
+      </c>
+      <c r="J20">
+        <v>-0.06504506921997739</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.0279484684454759</v>
+        <v>0.02187765319441224</v>
       </c>
       <c r="C21">
-        <v>0.02982835088424814</v>
+        <v>-4.957676077718948e-05</v>
       </c>
       <c r="D21">
-        <v>0.0002078974990906935</v>
+        <v>0.006821483288763088</v>
       </c>
       <c r="E21">
-        <v>-0.00409066394321725</v>
+        <v>-0.03386460626095925</v>
       </c>
       <c r="F21">
-        <v>-0.07676107425369026</v>
+        <v>-0.0009128389375974565</v>
       </c>
       <c r="G21">
-        <v>0.1180433608090682</v>
+        <v>0.02924183808823676</v>
       </c>
       <c r="H21">
-        <v>0.1029467926637222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.01750071890913292</v>
+      </c>
+      <c r="I21">
+        <v>-0.06299862529590941</v>
+      </c>
+      <c r="J21">
+        <v>-0.03874586760232456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.0426743669717318</v>
+        <v>0.0338054929759593</v>
       </c>
       <c r="C22">
-        <v>0.01119094067539699</v>
+        <v>0.02042682034262957</v>
       </c>
       <c r="D22">
-        <v>-0.6278048603202744</v>
+        <v>0.0004870403665232632</v>
       </c>
       <c r="E22">
-        <v>-0.1114587699756158</v>
+        <v>0.1063104214686845</v>
       </c>
       <c r="F22">
-        <v>-0.004892134800024326</v>
+        <v>0.5943415076426926</v>
       </c>
       <c r="G22">
-        <v>0.2102518075538621</v>
+        <v>0.02102626992184095</v>
       </c>
       <c r="H22">
-        <v>-0.07041754677255575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>-0.2739334239853355</v>
+      </c>
+      <c r="I22">
+        <v>0.1202970631612985</v>
+      </c>
+      <c r="J22">
+        <v>0.05273741647729091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.04310276218022739</v>
+        <v>0.03398697341595985</v>
       </c>
       <c r="C23">
-        <v>0.01201270115468776</v>
+        <v>0.02013036509338063</v>
       </c>
       <c r="D23">
-        <v>-0.6274655123321026</v>
+        <v>0.0009217634993533908</v>
       </c>
       <c r="E23">
-        <v>-0.1098132621531766</v>
+        <v>0.1079342349239491</v>
       </c>
       <c r="F23">
-        <v>-0.00516430334254314</v>
+        <v>0.5960884834330135</v>
       </c>
       <c r="G23">
-        <v>0.2121811222047531</v>
+        <v>0.02182506701618117</v>
       </c>
       <c r="H23">
-        <v>-0.07030461616791993</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>-0.2753831453388412</v>
+      </c>
+      <c r="I23">
+        <v>0.1178509371058341</v>
+      </c>
+      <c r="J23">
+        <v>0.05096419043660327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.08539711041421687</v>
+        <v>0.1010243192518498</v>
       </c>
       <c r="C24">
-        <v>0.04448908845304637</v>
+        <v>-0.06510070544616033</v>
       </c>
       <c r="D24">
-        <v>-0.02786330495775899</v>
+        <v>0.03493855707404318</v>
       </c>
       <c r="E24">
-        <v>0.03422200816073375</v>
+        <v>0.03811405918454493</v>
       </c>
       <c r="F24">
-        <v>0.01961377253920927</v>
+        <v>-0.05833914958291981</v>
       </c>
       <c r="G24">
-        <v>-0.1150662064048436</v>
+        <v>0.007864396868374098</v>
       </c>
       <c r="H24">
-        <v>-0.01632086511160473</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>-0.1022565647882629</v>
+      </c>
+      <c r="I24">
+        <v>-0.07714305007690184</v>
+      </c>
+      <c r="J24">
+        <v>0.01762618921342039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07734096870397028</v>
+        <v>0.100038823011882</v>
       </c>
       <c r="C25">
-        <v>0.01798156392071182</v>
+        <v>-0.04955526686353822</v>
       </c>
       <c r="D25">
-        <v>-0.014243297041462</v>
+        <v>0.02816994423668455</v>
       </c>
       <c r="E25">
-        <v>0.0200400226049546</v>
+        <v>0.04174461398913937</v>
       </c>
       <c r="F25">
-        <v>0.001630734991122186</v>
+        <v>-0.08673505053560573</v>
       </c>
       <c r="G25">
-        <v>-0.1180339068400909</v>
+        <v>0.009610810493378965</v>
       </c>
       <c r="H25">
-        <v>-0.02215250583229474</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>-0.09891125098172009</v>
+      </c>
+      <c r="I25">
+        <v>-0.07460326784175947</v>
+      </c>
+      <c r="J25">
+        <v>-0.005330702986016921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.05108511872074406</v>
+        <v>0.0449220195840196</v>
       </c>
       <c r="C26">
-        <v>0.0220117315564082</v>
+        <v>0.001204739789079598</v>
       </c>
       <c r="D26">
-        <v>-0.004290860046352951</v>
+        <v>0.02532618497701833</v>
       </c>
       <c r="E26">
-        <v>0.04935864801557815</v>
+        <v>0.003964909333845297</v>
       </c>
       <c r="F26">
-        <v>0.04936591556312197</v>
+        <v>-0.007486070787194337</v>
       </c>
       <c r="G26">
-        <v>-0.05781544613562075</v>
+        <v>0.03046106242004533</v>
       </c>
       <c r="H26">
-        <v>0.09924854219689991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>-0.05679450362539919</v>
+      </c>
+      <c r="I26">
+        <v>-0.0201077673435348</v>
+      </c>
+      <c r="J26">
+        <v>-0.08139213248471366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.06181928276496444</v>
+        <v>0.07131545905474007</v>
       </c>
       <c r="C28">
-        <v>-0.3066749615120986</v>
+        <v>0.3031953366430555</v>
       </c>
       <c r="D28">
-        <v>0.005853287040406495</v>
+        <v>-0.07885750949708153</v>
       </c>
       <c r="E28">
-        <v>0.01575775599457769</v>
+        <v>0.03257657228376604</v>
       </c>
       <c r="F28">
-        <v>-0.02179578960667973</v>
+        <v>-0.0466620991131157</v>
       </c>
       <c r="G28">
-        <v>0.02096985252647923</v>
+        <v>0.01747397516805995</v>
       </c>
       <c r="H28">
-        <v>-0.07984326037280259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-0.04201124893793454</v>
+      </c>
+      <c r="I28">
+        <v>-0.04968619571117151</v>
+      </c>
+      <c r="J28">
+        <v>0.006044553116465355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.05768127886887702</v>
+        <v>0.0358172409824107</v>
       </c>
       <c r="C29">
-        <v>-0.002481183374565751</v>
+        <v>-0.006008156267875785</v>
       </c>
       <c r="D29">
-        <v>-0.03992516161188756</v>
+        <v>-0.005460971047326129</v>
       </c>
       <c r="E29">
-        <v>0.02939193871483278</v>
+        <v>0.008043430528174198</v>
       </c>
       <c r="F29">
-        <v>0.02499727001364607</v>
+        <v>-0.02543970870664785</v>
       </c>
       <c r="G29">
-        <v>-0.04108857188379494</v>
+        <v>-0.01319817010380265</v>
       </c>
       <c r="H29">
-        <v>0.1089772059501186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.06610888673307068</v>
+      </c>
+      <c r="I29">
+        <v>-0.03111938819765948</v>
+      </c>
+      <c r="J29">
+        <v>-0.1127797236489887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1126074619293807</v>
+        <v>0.1163638422723342</v>
       </c>
       <c r="C30">
-        <v>-0.01170041866850913</v>
+        <v>-0.04699754248923559</v>
       </c>
       <c r="D30">
-        <v>-0.1594050850569784</v>
+        <v>-0.01360234086898987</v>
       </c>
       <c r="E30">
-        <v>0.03422579210429526</v>
+        <v>0.02855199850146181</v>
       </c>
       <c r="F30">
-        <v>-0.1307881341470223</v>
+        <v>-0.03248135928168969</v>
       </c>
       <c r="G30">
-        <v>-0.238000104202759</v>
+        <v>0.07698448918763186</v>
       </c>
       <c r="H30">
-        <v>-0.01814821328701631</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>-0.1418603971042681</v>
+      </c>
+      <c r="I30">
+        <v>-0.03061401844120726</v>
+      </c>
+      <c r="J30">
+        <v>0.1818016810534673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05584265033206472</v>
+        <v>0.0368371871320874</v>
       </c>
       <c r="C31">
-        <v>0.02751735584902105</v>
+        <v>-0.02128867784869885</v>
       </c>
       <c r="D31">
-        <v>-0.0209986750136118</v>
+        <v>0.02082505550468737</v>
       </c>
       <c r="E31">
-        <v>-0.008019430062060851</v>
+        <v>0.02015472644526659</v>
       </c>
       <c r="F31">
-        <v>0.01541799974217713</v>
+        <v>0.005418292904083869</v>
       </c>
       <c r="G31">
-        <v>-0.02410173403097763</v>
+        <v>-0.0016723038486078</v>
       </c>
       <c r="H31">
-        <v>0.03635452263802776</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.009866592999606015</v>
+      </c>
+      <c r="I31">
+        <v>-0.02893909775382117</v>
+      </c>
+      <c r="J31">
+        <v>-0.06991853234064824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03472220765538012</v>
+        <v>0.05581515776688193</v>
       </c>
       <c r="C32">
-        <v>-0.01483387492269616</v>
+        <v>-0.004853215859933004</v>
       </c>
       <c r="D32">
-        <v>-0.06471474380877827</v>
+        <v>0.02280904467879857</v>
       </c>
       <c r="E32">
-        <v>0.0001686248764855712</v>
+        <v>0.0005051669797484317</v>
       </c>
       <c r="F32">
-        <v>0.1034607195914299</v>
+        <v>-0.06317370259775376</v>
       </c>
       <c r="G32">
-        <v>-0.04017154032721922</v>
+        <v>0.05675922355520904</v>
       </c>
       <c r="H32">
-        <v>0.05034145758197531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.04381102277556299</v>
+      </c>
+      <c r="I32">
+        <v>-0.02883596252960385</v>
+      </c>
+      <c r="J32">
+        <v>0.004805359599488283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.111642334150007</v>
+        <v>0.11008165808941</v>
       </c>
       <c r="C33">
-        <v>0.01391478862572744</v>
+        <v>-0.05024129756326438</v>
       </c>
       <c r="D33">
-        <v>-0.02080954328085921</v>
+        <v>0.001613902383267596</v>
       </c>
       <c r="E33">
-        <v>-0.02300058070492568</v>
+        <v>0.06999325011007461</v>
       </c>
       <c r="F33">
-        <v>0.01967151246574092</v>
+        <v>-0.04638391214531941</v>
       </c>
       <c r="G33">
-        <v>-0.07304260564142875</v>
+        <v>0.0179027045054885</v>
       </c>
       <c r="H33">
-        <v>0.07080387023792274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>-0.07572076449983299</v>
+      </c>
+      <c r="I33">
+        <v>-0.02078685736045566</v>
+      </c>
+      <c r="J33">
+        <v>-0.03247882820316687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06928707292258182</v>
+        <v>0.08740612198712872</v>
       </c>
       <c r="C34">
-        <v>0.03743884988452927</v>
+        <v>-0.04686602945061875</v>
       </c>
       <c r="D34">
-        <v>9.429072210406535e-05</v>
+        <v>0.03132134217196136</v>
       </c>
       <c r="E34">
-        <v>-0.0003243227288114651</v>
+        <v>0.03815841884918671</v>
       </c>
       <c r="F34">
-        <v>0.04381727440392238</v>
+        <v>-0.06260569692793506</v>
       </c>
       <c r="G34">
-        <v>-0.08320560039956103</v>
+        <v>0.0119222788981321</v>
       </c>
       <c r="H34">
-        <v>-0.004356062300933712</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>-0.1017463034765551</v>
+      </c>
+      <c r="I34">
+        <v>-0.04818568918544926</v>
+      </c>
+      <c r="J34">
+        <v>0.002551120490925662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.04320863887432087</v>
+        <v>0.02184336771383123</v>
       </c>
       <c r="C35">
-        <v>0.001797901858319275</v>
+        <v>-0.007790702946031901</v>
       </c>
       <c r="D35">
-        <v>0.0236981628176997</v>
+        <v>-0.008169276094272844</v>
       </c>
       <c r="E35">
-        <v>-0.01460535866057973</v>
+        <v>0.007665542680607821</v>
       </c>
       <c r="F35">
-        <v>-0.03126625444025429</v>
+        <v>-0.01975646692502731</v>
       </c>
       <c r="G35">
-        <v>-0.04366624526718548</v>
+        <v>0.001752134630369688</v>
       </c>
       <c r="H35">
-        <v>-0.01422739081867968</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>-0.04254256326740873</v>
+      </c>
+      <c r="I35">
+        <v>-0.02076821070252459</v>
+      </c>
+      <c r="J35">
+        <v>-0.05494144510760809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.03842065824067002</v>
+        <v>0.02713989329080513</v>
       </c>
       <c r="C36">
-        <v>0.0003991269268115556</v>
+        <v>-0.009442954987544598</v>
       </c>
       <c r="D36">
-        <v>-0.01501936997822746</v>
+        <v>-0.00601946827313536</v>
       </c>
       <c r="E36">
-        <v>0.02443711340622232</v>
+        <v>0.004579201592381565</v>
       </c>
       <c r="F36">
-        <v>-0.008283198674687672</v>
+        <v>0.004712152008072125</v>
       </c>
       <c r="G36">
-        <v>-0.06796367657968347</v>
+        <v>0.02263882293604247</v>
       </c>
       <c r="H36">
-        <v>0.06041591637870464</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>-0.02953243086081608</v>
+      </c>
+      <c r="I36">
+        <v>-0.03922677728673502</v>
+      </c>
+      <c r="J36">
+        <v>-0.03009778158901279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05249366648096447</v>
+        <v>0.01724389666392124</v>
       </c>
       <c r="C38">
-        <v>0.01981226923938892</v>
+        <v>-0.007994561511896325</v>
       </c>
       <c r="D38">
-        <v>-0.005617231775424269</v>
+        <v>0.007222079968352012</v>
       </c>
       <c r="E38">
-        <v>0.00779717487003319</v>
+        <v>0.01088396624470287</v>
       </c>
       <c r="F38">
-        <v>0.04639669303000195</v>
+        <v>0.02376098868043113</v>
       </c>
       <c r="G38">
-        <v>-0.04852458523793479</v>
+        <v>-0.01812745228880487</v>
       </c>
       <c r="H38">
-        <v>0.001846122667763762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.009853866983276159</v>
+      </c>
+      <c r="I38">
+        <v>0.0431719165682961</v>
+      </c>
+      <c r="J38">
+        <v>-0.0171463841979954</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.1061997679507487</v>
+        <v>0.1511874674701175</v>
       </c>
       <c r="C39">
-        <v>0.04124294204931281</v>
+        <v>-0.1011418305801838</v>
       </c>
       <c r="D39">
-        <v>-0.06231239521955634</v>
+        <v>0.02951954307189506</v>
       </c>
       <c r="E39">
-        <v>0.0218581816484177</v>
+        <v>0.05708764738760603</v>
       </c>
       <c r="F39">
-        <v>0.04646910928935724</v>
+        <v>-0.1596428417984709</v>
       </c>
       <c r="G39">
-        <v>-0.150548403476206</v>
+        <v>0.01874840890474411</v>
       </c>
       <c r="H39">
-        <v>-0.1060056449937083</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-0.1677552152824418</v>
+      </c>
+      <c r="I39">
+        <v>-0.04708187471212587</v>
+      </c>
+      <c r="J39">
+        <v>0.004666889544451052</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.04698205528086479</v>
+        <v>0.01808814541945088</v>
       </c>
       <c r="C40">
-        <v>0.01648731252491574</v>
+        <v>-0.009093058120644018</v>
       </c>
       <c r="D40">
-        <v>-0.0498299627464092</v>
+        <v>0.0150238644758986</v>
       </c>
       <c r="E40">
-        <v>-0.02609609888750018</v>
+        <v>-0.006020872591051594</v>
       </c>
       <c r="F40">
-        <v>0.004456582425695832</v>
+        <v>0.05093327203575047</v>
       </c>
       <c r="G40">
-        <v>-0.3106043553874869</v>
+        <v>0.03151219617156975</v>
       </c>
       <c r="H40">
-        <v>-0.05636259098582893</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>-0.08806699656061566</v>
+      </c>
+      <c r="I40">
+        <v>-0.06505419496808935</v>
+      </c>
+      <c r="J40">
+        <v>0.01468244413345685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.05073174992693152</v>
+        <v>0.02529289875622233</v>
       </c>
       <c r="C41">
-        <v>0.0277271810833352</v>
+        <v>0.007892642660931599</v>
       </c>
       <c r="D41">
-        <v>0.02665808769935459</v>
+        <v>0.02970930186506901</v>
       </c>
       <c r="E41">
-        <v>0.005637168532123238</v>
+        <v>0.005144840042762823</v>
       </c>
       <c r="F41">
-        <v>0.04924149544606122</v>
+        <v>-0.01208216694375814</v>
       </c>
       <c r="G41">
-        <v>-0.04345319099377757</v>
+        <v>-0.00938699873506294</v>
       </c>
       <c r="H41">
-        <v>0.006738233581843091</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.007525091367341744</v>
+      </c>
+      <c r="I41">
+        <v>-0.005007186047620169</v>
+      </c>
+      <c r="J41">
+        <v>-0.05378493548007895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.07335191538088198</v>
+        <v>0.03801381215491006</v>
       </c>
       <c r="C43">
-        <v>0.02481492105812102</v>
+        <v>0.002521906199749066</v>
       </c>
       <c r="D43">
-        <v>-0.02682634325917378</v>
+        <v>0.03727628308320117</v>
       </c>
       <c r="E43">
-        <v>0.01521631693164088</v>
+        <v>0.03164517182077214</v>
       </c>
       <c r="F43">
-        <v>0.04226600162993895</v>
+        <v>0.005246500511385499</v>
       </c>
       <c r="G43">
-        <v>-0.006208415405363635</v>
+        <v>-0.001591780114843022</v>
       </c>
       <c r="H43">
-        <v>0.004383800092364061</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.007626681337178258</v>
+      </c>
+      <c r="I43">
+        <v>-0.003732899111376724</v>
+      </c>
+      <c r="J43">
+        <v>-0.07870384407178195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.08014768783566986</v>
+        <v>0.1303024100346248</v>
       </c>
       <c r="C44">
-        <v>0.003322108651435296</v>
+        <v>-0.07032967250441753</v>
       </c>
       <c r="D44">
-        <v>-0.05841519133546682</v>
+        <v>-0.008350627416741561</v>
       </c>
       <c r="E44">
-        <v>0.114175754408579</v>
+        <v>0.03508717199551791</v>
       </c>
       <c r="F44">
-        <v>0.06138082685431134</v>
+        <v>0.03834332742248867</v>
       </c>
       <c r="G44">
-        <v>-0.08782791610309226</v>
+        <v>-0.02927355687458914</v>
       </c>
       <c r="H44">
-        <v>0.01994791514865649</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>-0.2150947396884606</v>
+      </c>
+      <c r="I44">
+        <v>-0.06228827136068821</v>
+      </c>
+      <c r="J44">
+        <v>0.1081775588071141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.05250406700669546</v>
+        <v>0.02440079421889916</v>
       </c>
       <c r="C46">
-        <v>0.03486981488538712</v>
+        <v>0.002549112670357269</v>
       </c>
       <c r="D46">
-        <v>-0.04786257563834439</v>
+        <v>0.02218922000383167</v>
       </c>
       <c r="E46">
-        <v>0.005121764132098612</v>
+        <v>0.03113268235645164</v>
       </c>
       <c r="F46">
-        <v>0.02805186643834724</v>
+        <v>0.02285206633705936</v>
       </c>
       <c r="G46">
-        <v>-0.01436809105831007</v>
+        <v>-0.01125024902275682</v>
       </c>
       <c r="H46">
-        <v>0.09647930213675686</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>-0.04986229783652672</v>
+      </c>
+      <c r="I46">
+        <v>-0.01697342844512176</v>
+      </c>
+      <c r="J46">
+        <v>-0.1070050738822306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.05008447452525116</v>
+        <v>0.04218365235038633</v>
       </c>
       <c r="C47">
-        <v>-0.002026800528718237</v>
+        <v>0.00615709570818578</v>
       </c>
       <c r="D47">
-        <v>-0.04872178551920599</v>
+        <v>0.01253330906222785</v>
       </c>
       <c r="E47">
-        <v>-0.02250270415213334</v>
+        <v>0.006943530347994438</v>
       </c>
       <c r="F47">
-        <v>-0.02462131227274702</v>
+        <v>0.0098423044705336</v>
       </c>
       <c r="G47">
-        <v>-0.03944896715070804</v>
+        <v>0.02595018401923987</v>
       </c>
       <c r="H47">
-        <v>0.05031366487531306</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.04262641133607181</v>
+      </c>
+      <c r="I47">
+        <v>-0.03521927130201899</v>
+      </c>
+      <c r="J47">
+        <v>-0.04774134731134669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.04273364442131719</v>
+        <v>0.04031933168657748</v>
       </c>
       <c r="C48">
-        <v>0.001098159348989565</v>
+        <v>-0.01036799640541721</v>
       </c>
       <c r="D48">
-        <v>-0.02677729282517853</v>
+        <v>-0.01039957504384539</v>
       </c>
       <c r="E48">
-        <v>-0.03561128335611039</v>
+        <v>0.0102594902712755</v>
       </c>
       <c r="F48">
-        <v>-0.01399216147338034</v>
+        <v>-0.01332344544683844</v>
       </c>
       <c r="G48">
-        <v>-0.05787352742674876</v>
+        <v>0.02887342747348386</v>
       </c>
       <c r="H48">
-        <v>0.0184256851358089</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>-0.05851357351471723</v>
+      </c>
+      <c r="I48">
+        <v>-0.03695481412822948</v>
+      </c>
+      <c r="J48">
+        <v>-0.06531775214147821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.2449117281094391</v>
+        <v>0.2308880697789891</v>
       </c>
       <c r="C49">
-        <v>0.0586195325194002</v>
+        <v>-0.007237237663468814</v>
       </c>
       <c r="D49">
-        <v>0.1005996588462233</v>
+        <v>0.06339283167968786</v>
       </c>
       <c r="E49">
-        <v>-0.006689245416533945</v>
+        <v>-0.02146700308177883</v>
       </c>
       <c r="F49">
-        <v>-0.06655834099469919</v>
+        <v>-0.0135282199396917</v>
       </c>
       <c r="G49">
-        <v>0.1914664581903745</v>
+        <v>-0.1028384725769409</v>
       </c>
       <c r="H49">
-        <v>-0.1197235445820695</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.09507343491957847</v>
+      </c>
+      <c r="I49">
+        <v>0.1012110657174152</v>
+      </c>
+      <c r="J49">
+        <v>0.2736594033907387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05524695125425106</v>
+        <v>0.04334957358829448</v>
       </c>
       <c r="C50">
-        <v>0.01789426188639482</v>
+        <v>-0.01805382768980031</v>
       </c>
       <c r="D50">
-        <v>-0.02298558153834176</v>
+        <v>0.02764510799718688</v>
       </c>
       <c r="E50">
-        <v>-0.01348851971413625</v>
+        <v>0.01278421224169187</v>
       </c>
       <c r="F50">
-        <v>0.02730851233245364</v>
+        <v>-0.00565110382106568</v>
       </c>
       <c r="G50">
-        <v>-0.01304081083076366</v>
+        <v>0.001756534194648624</v>
       </c>
       <c r="H50">
-        <v>0.06688458248251901</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03173393301961516</v>
+      </c>
+      <c r="I50">
+        <v>-0.01323791904353329</v>
+      </c>
+      <c r="J50">
+        <v>-0.06584229097361773</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.03396880897036882</v>
+        <v>0.01479177828599117</v>
       </c>
       <c r="C51">
-        <v>0.01172975779610421</v>
+        <v>0.007850914536293748</v>
       </c>
       <c r="D51">
-        <v>-0.01455599422305641</v>
+        <v>0.001888727327751239</v>
       </c>
       <c r="E51">
-        <v>0.02310419249440664</v>
+        <v>0.01631218207162046</v>
       </c>
       <c r="F51">
-        <v>0.02521426392026008</v>
+        <v>0.01132345314176131</v>
       </c>
       <c r="G51">
-        <v>0.01986712638480066</v>
+        <v>-0.02412318088311474</v>
       </c>
       <c r="H51">
-        <v>-0.03770015186908937</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.008779535233743191</v>
+      </c>
+      <c r="I51">
+        <v>-0.001640623587233357</v>
+      </c>
+      <c r="J51">
+        <v>0.01987916454856681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1014463411061155</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.06325554128868445</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.0291116371951942</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.0266079754062745</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02743194891939021</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>0.010227086623507</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.0344287288407008</v>
+      </c>
+      <c r="I52">
+        <v>0.05538772544947086</v>
+      </c>
+      <c r="J52">
+        <v>-0.08733348587726494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1665813751593124</v>
+        <v>0.1550507311430964</v>
       </c>
       <c r="C53">
-        <v>0.008692459077030491</v>
+        <v>-0.009932881847585629</v>
       </c>
       <c r="D53">
-        <v>0.001019900305850386</v>
+        <v>-0.004018701964001991</v>
       </c>
       <c r="E53">
-        <v>-0.03915155826509865</v>
+        <v>-0.02091214451721626</v>
       </c>
       <c r="F53">
-        <v>0.1645223745250556</v>
+        <v>0.03705465410508885</v>
       </c>
       <c r="G53">
-        <v>0.06031108407052325</v>
+        <v>-0.05900899825512578</v>
       </c>
       <c r="H53">
-        <v>0.05185459895243834</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.07492791386853795</v>
+      </c>
+      <c r="I53">
+        <v>0.1516525300373024</v>
+      </c>
+      <c r="J53">
+        <v>-0.1758000219180512</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.05272208302196815</v>
+        <v>0.05050612536935605</v>
       </c>
       <c r="C54">
-        <v>0.002878610102802451</v>
+        <v>-0.007117193142583122</v>
       </c>
       <c r="D54">
-        <v>-0.02438402278268918</v>
+        <v>0.01117834394419959</v>
       </c>
       <c r="E54">
-        <v>0.00743729611954899</v>
+        <v>0.01324922037461152</v>
       </c>
       <c r="F54">
-        <v>0.001453684287010676</v>
+        <v>0.01262800577623209</v>
       </c>
       <c r="G54">
-        <v>-0.06102034912218152</v>
+        <v>0.02477252052420019</v>
       </c>
       <c r="H54">
-        <v>0.1050744269799285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.05971870404982627</v>
+      </c>
+      <c r="I54">
+        <v>-0.09233280779959445</v>
+      </c>
+      <c r="J54">
+        <v>-0.1082329567322056</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1027895298804164</v>
+        <v>0.09077087946762265</v>
       </c>
       <c r="C55">
-        <v>0.01214529640242218</v>
+        <v>-0.02140518404597168</v>
       </c>
       <c r="D55">
-        <v>-0.008608932248819949</v>
+        <v>-0.01893182609502473</v>
       </c>
       <c r="E55">
-        <v>-0.01403439739850761</v>
+        <v>0.03095152605818925</v>
       </c>
       <c r="F55">
-        <v>0.09408132043926656</v>
+        <v>-0.008514826530099467</v>
       </c>
       <c r="G55">
-        <v>-0.01054344396434948</v>
+        <v>-0.01671201042389884</v>
       </c>
       <c r="H55">
-        <v>0.08323421236901665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.01555855161231738</v>
+      </c>
+      <c r="I55">
+        <v>0.03874760458853878</v>
+      </c>
+      <c r="J55">
+        <v>-0.1216751957321653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1683039667886066</v>
+        <v>0.1631023753527998</v>
       </c>
       <c r="C56">
-        <v>0.006586928257280704</v>
+        <v>-0.03235271414274119</v>
       </c>
       <c r="D56">
-        <v>0.008818282647427208</v>
+        <v>0.01135125884051683</v>
       </c>
       <c r="E56">
-        <v>-0.07253389720643828</v>
+        <v>0.01241837039712515</v>
       </c>
       <c r="F56">
-        <v>0.1639898592330122</v>
+        <v>-0.0100043878362974</v>
       </c>
       <c r="G56">
-        <v>0.04826054345898987</v>
+        <v>-0.04102522159102937</v>
       </c>
       <c r="H56">
-        <v>0.04686593750550697</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.003568271410498629</v>
+      </c>
+      <c r="I56">
+        <v>0.09138496476537487</v>
+      </c>
+      <c r="J56">
+        <v>-0.1494752572933321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01914548382213477</v>
+        <v>0.03806390041776098</v>
       </c>
       <c r="C58">
-        <v>0.06483869046744932</v>
+        <v>-0.01808705797089679</v>
       </c>
       <c r="D58">
-        <v>-0.1070236806224839</v>
+        <v>0.01726557466468498</v>
       </c>
       <c r="E58">
-        <v>-0.01583383577597192</v>
+        <v>0.009096007961862607</v>
       </c>
       <c r="F58">
-        <v>-0.4646222671063461</v>
+        <v>0.05912575288322251</v>
       </c>
       <c r="G58">
-        <v>-0.2805750526619208</v>
+        <v>0.03486351554849233</v>
       </c>
       <c r="H58">
-        <v>-0.2173967918509069</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>-0.1099586279926368</v>
+      </c>
+      <c r="I58">
+        <v>0.01671088926176738</v>
+      </c>
+      <c r="J58">
+        <v>-0.03376400068711</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1483561043262924</v>
+        <v>0.1431376931120213</v>
       </c>
       <c r="C59">
-        <v>-0.3757413128927876</v>
+        <v>0.3020192021726986</v>
       </c>
       <c r="D59">
-        <v>0.02676126164043132</v>
+        <v>-0.07387003977919665</v>
       </c>
       <c r="E59">
-        <v>0.05174175841651859</v>
+        <v>0.04158950638072414</v>
       </c>
       <c r="F59">
-        <v>0.06036729315287352</v>
+        <v>-0.04480490945379079</v>
       </c>
       <c r="G59">
-        <v>-0.005011117651977406</v>
+        <v>-0.04653562581914306</v>
       </c>
       <c r="H59">
-        <v>-0.02815279322656583</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.03987894077050815</v>
+      </c>
+      <c r="I59">
+        <v>-0.07381226866343482</v>
+      </c>
+      <c r="J59">
+        <v>0.0194143775366901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.2796728605398018</v>
+        <v>0.2846064950922111</v>
       </c>
       <c r="C60">
-        <v>0.04979834416823485</v>
+        <v>-0.07427211363360811</v>
       </c>
       <c r="D60">
-        <v>0.06513255149277049</v>
+        <v>0.000165672565705979</v>
       </c>
       <c r="E60">
-        <v>0.03447413200193523</v>
+        <v>-0.07857117878111926</v>
       </c>
       <c r="F60">
-        <v>-0.08004873719773159</v>
+        <v>0.02276791058389028</v>
       </c>
       <c r="G60">
-        <v>0.1841058304288579</v>
+        <v>-0.1796695605148345</v>
       </c>
       <c r="H60">
-        <v>-0.1191297242347599</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.133811831272261</v>
+      </c>
+      <c r="I60">
+        <v>0.1221968459677724</v>
+      </c>
+      <c r="J60">
+        <v>0.4508336651911222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.09251908247008729</v>
+        <v>0.1176746369257361</v>
       </c>
       <c r="C61">
-        <v>0.01845690733535604</v>
+        <v>-0.05743416480123235</v>
       </c>
       <c r="D61">
-        <v>-0.02250210353948175</v>
+        <v>-0.00133439827817837</v>
       </c>
       <c r="E61">
-        <v>0.01687585056565611</v>
+        <v>0.04282341358307577</v>
       </c>
       <c r="F61">
-        <v>0.04562080637755789</v>
+        <v>-0.09823468533816887</v>
       </c>
       <c r="G61">
-        <v>-0.07096583733205995</v>
+        <v>0.01118456739200804</v>
       </c>
       <c r="H61">
-        <v>-0.03007846890226595</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-0.1423521708677409</v>
+      </c>
+      <c r="I61">
+        <v>-0.1050621777685291</v>
+      </c>
+      <c r="J61">
+        <v>-0.04265438788326873</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.1447787553838117</v>
+        <v>0.1589737206361701</v>
       </c>
       <c r="C62">
-        <v>0.03605712794578084</v>
+        <v>-0.02870316945139921</v>
       </c>
       <c r="D62">
-        <v>0.06012645958705378</v>
+        <v>0.003182905718395125</v>
       </c>
       <c r="E62">
-        <v>-0.08260877664762327</v>
+        <v>-0.003607292405181219</v>
       </c>
       <c r="F62">
-        <v>0.1717337075036282</v>
+        <v>-0.003648375693042943</v>
       </c>
       <c r="G62">
-        <v>0.04847759015200572</v>
+        <v>-0.01899111508093158</v>
       </c>
       <c r="H62">
-        <v>0.07654556760713893</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.03616701179307557</v>
+      </c>
+      <c r="I62">
+        <v>0.1108866807245442</v>
+      </c>
+      <c r="J62">
+        <v>-0.1416799247968223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04557123747325504</v>
+        <v>0.04740418837895576</v>
       </c>
       <c r="C63">
-        <v>0.01805840711874394</v>
+        <v>-0.01943237344868443</v>
       </c>
       <c r="D63">
-        <v>0.0002067409531419214</v>
+        <v>-0.003297343916744036</v>
       </c>
       <c r="E63">
-        <v>-0.01739488054763647</v>
+        <v>0.02778873996241688</v>
       </c>
       <c r="F63">
-        <v>-0.01036787452680687</v>
+        <v>-0.01899428615881041</v>
       </c>
       <c r="G63">
-        <v>-0.02754804217235435</v>
+        <v>0.05083688241666551</v>
       </c>
       <c r="H63">
-        <v>0.1106847786026202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>-0.03874395746120157</v>
+      </c>
+      <c r="I63">
+        <v>-0.05474077163512669</v>
+      </c>
+      <c r="J63">
+        <v>-0.06682384094638398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.10922303022653</v>
+        <v>0.1016226139492766</v>
       </c>
       <c r="C64">
-        <v>0.008273928610018083</v>
+        <v>-0.02531863347146351</v>
       </c>
       <c r="D64">
-        <v>-0.0142985438798469</v>
+        <v>0.01158794685011085</v>
       </c>
       <c r="E64">
-        <v>0.03508782965275875</v>
+        <v>0.008991143171786131</v>
       </c>
       <c r="F64">
-        <v>0.01547106200957368</v>
+        <v>-0.01288008357068339</v>
       </c>
       <c r="G64">
-        <v>-0.02201298651958817</v>
+        <v>-0.04340367556174953</v>
       </c>
       <c r="H64">
-        <v>0.003134982845836751</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>-0.06345762348201106</v>
+      </c>
+      <c r="I64">
+        <v>-0.04428305866904423</v>
+      </c>
+      <c r="J64">
+        <v>0.01994672061507879</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.1067620893750754</v>
+        <v>0.1143325837639596</v>
       </c>
       <c r="C65">
-        <v>0.03457382371363851</v>
+        <v>-0.008498328403523214</v>
       </c>
       <c r="D65">
-        <v>0.001281363230141845</v>
+        <v>-0.01291235364869873</v>
       </c>
       <c r="E65">
-        <v>-0.004452779681868907</v>
+        <v>-0.02024169920160016</v>
       </c>
       <c r="F65">
-        <v>-0.4862142068924923</v>
+        <v>0.005238538013321736</v>
       </c>
       <c r="G65">
-        <v>0.09291625023719267</v>
+        <v>0.08760379600721666</v>
       </c>
       <c r="H65">
-        <v>0.5399676359088424</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.0462618626629862</v>
+      </c>
+      <c r="I65">
+        <v>-0.01360559837460561</v>
+      </c>
+      <c r="J65">
+        <v>0.08655137876997482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.153456738685067</v>
+        <v>0.180531818719998</v>
       </c>
       <c r="C66">
-        <v>0.04803382763761051</v>
+        <v>-0.1083883615052377</v>
       </c>
       <c r="D66">
-        <v>-0.01253582721560851</v>
+        <v>0.04475525585774426</v>
       </c>
       <c r="E66">
-        <v>0.05987230494004857</v>
+        <v>0.06064250557895724</v>
       </c>
       <c r="F66">
-        <v>0.1477480471725925</v>
+        <v>-0.171179433393076</v>
       </c>
       <c r="G66">
-        <v>-0.242867445242556</v>
+        <v>0.006703869580100663</v>
       </c>
       <c r="H66">
-        <v>-0.1706289862633057</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>-0.168242695909657</v>
+      </c>
+      <c r="I66">
+        <v>-0.04510167920064882</v>
+      </c>
+      <c r="J66">
+        <v>0.04797495506621891</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.1072002371695287</v>
+        <v>0.08608323220786614</v>
       </c>
       <c r="C67">
-        <v>0.03902450974959346</v>
+        <v>-0.04365005696818863</v>
       </c>
       <c r="D67">
-        <v>0.01325211323640363</v>
+        <v>-0.007227224436170476</v>
       </c>
       <c r="E67">
-        <v>0.03610743129057178</v>
+        <v>0.07890619812189806</v>
       </c>
       <c r="F67">
-        <v>0.06808421169084485</v>
+        <v>0.02196571270975858</v>
       </c>
       <c r="G67">
-        <v>-0.02065414555022427</v>
+        <v>-0.04719344028549406</v>
       </c>
       <c r="H67">
-        <v>-0.00168899333768649</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.07904293770596352</v>
+      </c>
+      <c r="I67">
+        <v>0.02467118265366417</v>
+      </c>
+      <c r="J67">
+        <v>0.03861191538239057</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.03971613213432087</v>
+        <v>0.06232751410973816</v>
       </c>
       <c r="C68">
-        <v>-0.2939603021898429</v>
+        <v>0.2780685168731314</v>
       </c>
       <c r="D68">
-        <v>-0.002850889678833205</v>
+        <v>-0.0742880977417105</v>
       </c>
       <c r="E68">
-        <v>-0.02349263577821009</v>
+        <v>0.02455818247683873</v>
       </c>
       <c r="F68">
-        <v>-0.02684694536607912</v>
+        <v>-0.05137788021687832</v>
       </c>
       <c r="G68">
-        <v>0.01575762287833513</v>
+        <v>0.02556196137132295</v>
       </c>
       <c r="H68">
-        <v>0.02830446352890507</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.03897401002951648</v>
+      </c>
+      <c r="I68">
+        <v>-0.03646158071435417</v>
+      </c>
+      <c r="J68">
+        <v>0.008757328570516474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.0494267331719218</v>
+        <v>0.03804057227913227</v>
       </c>
       <c r="C69">
-        <v>0.01021155926206603</v>
+        <v>-0.0005502827174064211</v>
       </c>
       <c r="D69">
-        <v>-0.003284066768869126</v>
+        <v>-0.01273847608865561</v>
       </c>
       <c r="E69">
-        <v>-0.04103362644891094</v>
+        <v>0.02173539368333875</v>
       </c>
       <c r="F69">
-        <v>0.001485733039243582</v>
+        <v>0.003355575317270515</v>
       </c>
       <c r="G69">
-        <v>-0.01074461801517723</v>
+        <v>0.001087810836267932</v>
       </c>
       <c r="H69">
-        <v>0.004896993130390843</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.02013804210135528</v>
+      </c>
+      <c r="I69">
+        <v>0.006370093081771147</v>
+      </c>
+      <c r="J69">
+        <v>-0.01930447663001278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.082143959849949</v>
+        <v>0.03917268908184707</v>
       </c>
       <c r="C70">
-        <v>0.007810087891586552</v>
+        <v>0.00778817994682285</v>
       </c>
       <c r="D70">
-        <v>0.03315531251271918</v>
+        <v>-0.02109607057871123</v>
       </c>
       <c r="E70">
-        <v>0.0548295381812504</v>
+        <v>0.02597996814339877</v>
       </c>
       <c r="F70">
-        <v>0.01718324123720017</v>
+        <v>-0.02040279425996382</v>
       </c>
       <c r="G70">
-        <v>0.04162973995717759</v>
+        <v>-0.06193169628797114</v>
       </c>
       <c r="H70">
-        <v>0.0163565193839622</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.009734122246680675</v>
+      </c>
+      <c r="I70">
+        <v>0.007596094230154268</v>
+      </c>
+      <c r="J70">
+        <v>-0.07982370160239034</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.04978839043122211</v>
+        <v>0.07322502419644533</v>
       </c>
       <c r="C71">
-        <v>-0.3009241451464193</v>
+        <v>0.2919482358981013</v>
       </c>
       <c r="D71">
-        <v>0.003475647486939845</v>
+        <v>-0.07914542503211951</v>
       </c>
       <c r="E71">
-        <v>0.004168189113028153</v>
+        <v>0.02712278423854451</v>
       </c>
       <c r="F71">
-        <v>-0.008965369325452062</v>
+        <v>-0.04369584372183258</v>
       </c>
       <c r="G71">
-        <v>-0.003735214447793173</v>
+        <v>0.005135488392596057</v>
       </c>
       <c r="H71">
-        <v>-0.00143585600049973</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>-0.0521329956946659</v>
+      </c>
+      <c r="I71">
+        <v>-0.04355213283845537</v>
+      </c>
+      <c r="J71">
+        <v>0.03595645578120643</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1288852475256818</v>
+        <v>0.1343618368564596</v>
       </c>
       <c r="C72">
-        <v>-0.01333192243224206</v>
+        <v>0.02234712415016064</v>
       </c>
       <c r="D72">
-        <v>0.07597032488243301</v>
+        <v>0.01240879510252804</v>
       </c>
       <c r="E72">
-        <v>-0.1369926292348439</v>
+        <v>0.02095318755860226</v>
       </c>
       <c r="F72">
-        <v>0.005839593151737882</v>
+        <v>-0.007648271842280635</v>
       </c>
       <c r="G72">
-        <v>-0.03221028309950725</v>
+        <v>0.03470065742280019</v>
       </c>
       <c r="H72">
-        <v>0.08465136295860645</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.0565585671115592</v>
+      </c>
+      <c r="I72">
+        <v>0.01111015787520891</v>
+      </c>
+      <c r="J72">
+        <v>-0.04728773110655055</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2745051690941787</v>
+        <v>0.2355133886576402</v>
       </c>
       <c r="C73">
-        <v>0.1413685041892871</v>
+        <v>-0.02566725042026421</v>
       </c>
       <c r="D73">
-        <v>0.1246211604223841</v>
+        <v>0.0326289087938718</v>
       </c>
       <c r="E73">
-        <v>0.07031057078747865</v>
+        <v>0.01015672247126995</v>
       </c>
       <c r="F73">
-        <v>-0.2546445014817889</v>
+        <v>-0.02353541246940423</v>
       </c>
       <c r="G73">
-        <v>0.2834874482013717</v>
+        <v>-0.2448586775558736</v>
       </c>
       <c r="H73">
-        <v>-0.3658483473946023</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.173160802228765</v>
+      </c>
+      <c r="I73">
+        <v>0.2341380328807598</v>
+      </c>
+      <c r="J73">
+        <v>0.3128867649864817</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1027350685636365</v>
+        <v>0.1079624851192866</v>
       </c>
       <c r="C74">
-        <v>0.03475015880521066</v>
+        <v>-0.01986016500624439</v>
       </c>
       <c r="D74">
-        <v>-0.005128289624338996</v>
+        <v>0.0255504067773005</v>
       </c>
       <c r="E74">
-        <v>-0.01103200543045023</v>
+        <v>0.0150962839825088</v>
       </c>
       <c r="F74">
-        <v>0.08474761639980588</v>
+        <v>-0.0007979642173023082</v>
       </c>
       <c r="G74">
-        <v>0.05031295462362542</v>
+        <v>-0.01285791552324401</v>
       </c>
       <c r="H74">
-        <v>0.03376036273816762</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.02078354067878629</v>
+      </c>
+      <c r="I74">
+        <v>0.1048896692016747</v>
+      </c>
+      <c r="J74">
+        <v>-0.1106519058369702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09847380782073417</v>
+        <v>0.1220859010248545</v>
       </c>
       <c r="C75">
-        <v>0.02179345785535781</v>
+        <v>-0.03333476310138234</v>
       </c>
       <c r="D75">
-        <v>0.006425004503846359</v>
+        <v>0.02403942672250571</v>
       </c>
       <c r="E75">
-        <v>-0.06730054072028373</v>
+        <v>0.007129870727151912</v>
       </c>
       <c r="F75">
-        <v>0.05384242884703354</v>
+        <v>0.007075069114688938</v>
       </c>
       <c r="G75">
-        <v>0.03708206373083368</v>
+        <v>0.01760720668712368</v>
       </c>
       <c r="H75">
-        <v>0.02500718600069915</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.007293873201359461</v>
+      </c>
+      <c r="I75">
+        <v>0.0515847344946026</v>
+      </c>
+      <c r="J75">
+        <v>-0.1217088867397411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.146415561280361</v>
+        <v>0.04467656997025725</v>
       </c>
       <c r="C76">
-        <v>0.03095875029957075</v>
+        <v>0.001372441050357765</v>
       </c>
       <c r="D76">
-        <v>-0.03709103731691766</v>
+        <v>0.01075617363532039</v>
       </c>
       <c r="E76">
-        <v>-0.03613216868412523</v>
+        <v>0.02829136827079541</v>
       </c>
       <c r="F76">
-        <v>0.1672635112740157</v>
+        <v>0.02790650667591779</v>
       </c>
       <c r="G76">
-        <v>0.08424180824470168</v>
+        <v>-0.04181356915908829</v>
       </c>
       <c r="H76">
-        <v>0.05293947951067446</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.03984307215159084</v>
+      </c>
+      <c r="I76">
+        <v>0.03140505768743172</v>
+      </c>
+      <c r="J76">
+        <v>-0.07500377054463883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.07508101801219473</v>
+        <v>0.08650285047809074</v>
       </c>
       <c r="C77">
-        <v>-0.0134188444794903</v>
+        <v>-0.07912608514651541</v>
       </c>
       <c r="D77">
-        <v>-0.008894045246599694</v>
+        <v>0.0160211067329269</v>
       </c>
       <c r="E77">
-        <v>0.1157268307349336</v>
+        <v>-0.007672967430872238</v>
       </c>
       <c r="F77">
-        <v>-0.1706603621267259</v>
+        <v>-0.008232872348967061</v>
       </c>
       <c r="G77">
-        <v>-0.1908831879847228</v>
+        <v>-0.0007539529174786543</v>
       </c>
       <c r="H77">
-        <v>-0.1780184446653745</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>-0.07407156427489221</v>
+      </c>
+      <c r="I77">
+        <v>-0.2146509049327809</v>
+      </c>
+      <c r="J77">
+        <v>0.1970446966137294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.2295101419804598</v>
+        <v>0.1347082873776907</v>
       </c>
       <c r="C78">
-        <v>0.037621321363652</v>
+        <v>-0.01165104247149158</v>
       </c>
       <c r="D78">
-        <v>-0.1526585268371605</v>
+        <v>0.1487535275427204</v>
       </c>
       <c r="E78">
-        <v>0.08858043024740397</v>
+        <v>0.2321933767009136</v>
       </c>
       <c r="F78">
-        <v>-0.06160180535788692</v>
+        <v>0.3209455251600575</v>
       </c>
       <c r="G78">
-        <v>-0.1758642484413469</v>
+        <v>0.05317525910104543</v>
       </c>
       <c r="H78">
-        <v>0.08339961419751368</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.5465862278104454</v>
+      </c>
+      <c r="I78">
+        <v>-0.6141564825435857</v>
+      </c>
+      <c r="J78">
+        <v>-0.0471461942070313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.1399765036487243</v>
+        <v>0.1416634665953038</v>
       </c>
       <c r="C79">
-        <v>0.009049300298715241</v>
+        <v>-0.02735331393595519</v>
       </c>
       <c r="D79">
-        <v>0.009449658555332932</v>
+        <v>0.04507599034162967</v>
       </c>
       <c r="E79">
-        <v>-0.04397780766061258</v>
+        <v>-0.004886473739558793</v>
       </c>
       <c r="F79">
-        <v>0.100635908235547</v>
+        <v>-0.005291758530536762</v>
       </c>
       <c r="G79">
-        <v>0.0003222206974637734</v>
+        <v>-0.0215329795256776</v>
       </c>
       <c r="H79">
-        <v>0.071467316112311</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.003198914009251431</v>
+      </c>
+      <c r="I79">
+        <v>0.0966060691515564</v>
+      </c>
+      <c r="J79">
+        <v>-0.1326665644095198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.04320782812267573</v>
+        <v>0.07669655477794193</v>
       </c>
       <c r="C80">
-        <v>-0.008520174367177696</v>
+        <v>-0.0545525558392825</v>
       </c>
       <c r="D80">
-        <v>0.1065283440556462</v>
+        <v>-0.01431330076025789</v>
       </c>
       <c r="E80">
-        <v>0.03727023844652664</v>
+        <v>0.03003750586070686</v>
       </c>
       <c r="F80">
-        <v>-0.04258509901177088</v>
+        <v>-0.0579817165698777</v>
       </c>
       <c r="G80">
-        <v>-0.02167012966391864</v>
+        <v>0.002626417356857789</v>
       </c>
       <c r="H80">
-        <v>0.1225380230675242</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.02478184165114676</v>
+      </c>
+      <c r="I80">
+        <v>-0.04323978780442662</v>
+      </c>
+      <c r="J80">
+        <v>-0.1263040985398932</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1081609777786369</v>
+        <v>0.1385538241463906</v>
       </c>
       <c r="C81">
-        <v>0.0006161247262477339</v>
+        <v>-0.03480510900306716</v>
       </c>
       <c r="D81">
-        <v>-0.001746490042565367</v>
+        <v>0.02918543537642151</v>
       </c>
       <c r="E81">
-        <v>-0.01912496471951055</v>
+        <v>0.01943124163438855</v>
       </c>
       <c r="F81">
-        <v>0.1178845254832061</v>
+        <v>0.01069710582964496</v>
       </c>
       <c r="G81">
-        <v>0.01684974321843785</v>
+        <v>-0.01191819454068848</v>
       </c>
       <c r="H81">
-        <v>0.03213995053070969</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.0187122766704155</v>
+      </c>
+      <c r="I81">
+        <v>0.03387902968199943</v>
+      </c>
+      <c r="J81">
+        <v>-0.1570475838415714</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1192999180109147</v>
+        <v>0.1591657478082339</v>
       </c>
       <c r="C82">
-        <v>0.01642719051971183</v>
+        <v>-0.04522287297259599</v>
       </c>
       <c r="D82">
-        <v>0.02834889193186755</v>
+        <v>-0.005021218546968484</v>
       </c>
       <c r="E82">
-        <v>0.04114821532047082</v>
+        <v>0.003079975482799614</v>
       </c>
       <c r="F82">
-        <v>0.222795149729182</v>
+        <v>-0.02630487484969586</v>
       </c>
       <c r="G82">
-        <v>0.03513728260601845</v>
+        <v>-0.06689555972454379</v>
       </c>
       <c r="H82">
-        <v>0.09293466802178139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.01427052234627182</v>
+      </c>
+      <c r="I82">
+        <v>0.1414245410177952</v>
+      </c>
+      <c r="J82">
+        <v>-0.2012986148975272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.111194191328649</v>
+        <v>0.08347293165319694</v>
       </c>
       <c r="C83">
-        <v>0.04263522867259321</v>
+        <v>-0.0239269684724506</v>
       </c>
       <c r="D83">
-        <v>0.03388688351130534</v>
+        <v>0.0007778348016370278</v>
       </c>
       <c r="E83">
-        <v>0.09020479145282506</v>
+        <v>-0.05514659139476027</v>
       </c>
       <c r="F83">
-        <v>-0.01254544085976009</v>
+        <v>0.0304852254818011</v>
       </c>
       <c r="G83">
-        <v>-0.078093278466943</v>
+        <v>0.04536000464913405</v>
       </c>
       <c r="H83">
-        <v>-0.05176580566572205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>-0.0413449082085534</v>
+      </c>
+      <c r="I83">
+        <v>-0.05953037212722905</v>
+      </c>
+      <c r="J83">
+        <v>-0.08527729892272723</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.04960217450606093</v>
+        <v>0.06946321735954801</v>
       </c>
       <c r="C84">
-        <v>0.03107852922896171</v>
+        <v>-0.02258970651904453</v>
       </c>
       <c r="D84">
-        <v>-0.01290693252908794</v>
+        <v>-0.005688608557628332</v>
       </c>
       <c r="E84">
-        <v>-0.04428363529624622</v>
+        <v>-0.02076417397150487</v>
       </c>
       <c r="F84">
-        <v>0.06101500776085061</v>
+        <v>-0.04473947045951276</v>
       </c>
       <c r="G84">
-        <v>0.01976865498339671</v>
+        <v>-0.01704518214930318</v>
       </c>
       <c r="H84">
-        <v>0.04622948355419772</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>-0.0643587192562156</v>
+      </c>
+      <c r="I84">
+        <v>-0.06401607997483076</v>
+      </c>
+      <c r="J84">
+        <v>0.1448263578446346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1113095900649541</v>
+        <v>0.1227119749293209</v>
       </c>
       <c r="C85">
-        <v>0.01740656115006525</v>
+        <v>-0.01450774334515394</v>
       </c>
       <c r="D85">
-        <v>0.002664583474137243</v>
+        <v>0.01385974548262404</v>
       </c>
       <c r="E85">
-        <v>-0.07124814844394287</v>
+        <v>0.002419773860208002</v>
       </c>
       <c r="F85">
-        <v>0.120660841789956</v>
+        <v>0.009260627294996321</v>
       </c>
       <c r="G85">
-        <v>0.007134846014910684</v>
+        <v>-0.02181363100552911</v>
       </c>
       <c r="H85">
-        <v>0.09371815063088046</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.001200129553435323</v>
+      </c>
+      <c r="I85">
+        <v>0.06209355625337795</v>
+      </c>
+      <c r="J85">
+        <v>-0.121546709589715</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.06740337672133496</v>
+        <v>0.1138157092336629</v>
       </c>
       <c r="C86">
-        <v>0.01853712961875981</v>
+        <v>0.08475210919419036</v>
       </c>
       <c r="D86">
-        <v>-0.02752676442818204</v>
+        <v>0.3273937284042703</v>
       </c>
       <c r="E86">
-        <v>0.1167867451061759</v>
+        <v>-0.8722789887109478</v>
       </c>
       <c r="F86">
-        <v>0.0293423498615366</v>
+        <v>0.1255792178434307</v>
       </c>
       <c r="G86">
-        <v>0.04251043090148097</v>
+        <v>0.1167303946067705</v>
       </c>
       <c r="H86">
-        <v>0.2577920680269052</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>-0.06327541714558106</v>
+      </c>
+      <c r="I86">
+        <v>-0.1520512660706136</v>
+      </c>
+      <c r="J86">
+        <v>-0.02328435554731379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1118630315907586</v>
+        <v>0.1176617657752845</v>
       </c>
       <c r="C87">
-        <v>0.04535903871101638</v>
+        <v>-0.08783000362414421</v>
       </c>
       <c r="D87">
-        <v>-0.0256542019392319</v>
+        <v>-0.06004418355325394</v>
       </c>
       <c r="E87">
-        <v>0.0306765446570392</v>
+        <v>-0.00525727032054081</v>
       </c>
       <c r="F87">
-        <v>-0.02206389398306406</v>
+        <v>0.02392872675123693</v>
       </c>
       <c r="G87">
-        <v>-0.1419738057115747</v>
+        <v>-0.008074403301712314</v>
       </c>
       <c r="H87">
-        <v>0.02202684042421608</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>-0.06792414243874319</v>
+      </c>
+      <c r="I87">
+        <v>-0.215089449554883</v>
+      </c>
+      <c r="J87">
+        <v>0.09645174577739903</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.07391238020445345</v>
+        <v>0.0548415515559318</v>
       </c>
       <c r="C88">
-        <v>0.0360707493851045</v>
+        <v>-0.02453152234013444</v>
       </c>
       <c r="D88">
-        <v>-0.007290469080039433</v>
+        <v>0.02485891361268412</v>
       </c>
       <c r="E88">
-        <v>0.02960378506804524</v>
+        <v>0.0340214685649998</v>
       </c>
       <c r="F88">
-        <v>0.0303358103726128</v>
+        <v>-0.04830164932690264</v>
       </c>
       <c r="G88">
-        <v>-0.04776142754269929</v>
+        <v>-0.01600168314670352</v>
       </c>
       <c r="H88">
-        <v>0.01169102872669636</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>-0.006005236651335902</v>
+      </c>
+      <c r="I88">
+        <v>-0.0253074868050803</v>
+      </c>
+      <c r="J88">
+        <v>-0.06259256243592007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.09158149907660561</v>
+        <v>0.1164775640070475</v>
       </c>
       <c r="C89">
-        <v>-0.3864435070790193</v>
+        <v>0.3726650423529222</v>
       </c>
       <c r="D89">
-        <v>-0.01183354197469273</v>
+        <v>-0.09432716987227778</v>
       </c>
       <c r="E89">
-        <v>0.04977198964984565</v>
+        <v>0.01436697087208106</v>
       </c>
       <c r="F89">
-        <v>-0.02653144004442041</v>
+        <v>0.02957954042004443</v>
       </c>
       <c r="G89">
-        <v>0.002578689648081035</v>
+        <v>-0.041258048181591</v>
       </c>
       <c r="H89">
-        <v>-0.01670259672717839</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>-0.02375301463159777</v>
+      </c>
+      <c r="I89">
+        <v>-0.02005713724747417</v>
+      </c>
+      <c r="J89">
+        <v>-0.001473369229575908</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.07026354528435269</v>
+        <v>0.08658944367628184</v>
       </c>
       <c r="C90">
-        <v>-0.2993634677851105</v>
+        <v>0.2960216580748209</v>
       </c>
       <c r="D90">
-        <v>-0.02915683169374992</v>
+        <v>-0.07570533888688215</v>
       </c>
       <c r="E90">
-        <v>0.01516578888361029</v>
+        <v>0.01640863094883135</v>
       </c>
       <c r="F90">
-        <v>-0.001154546793515119</v>
+        <v>-0.0449291182216351</v>
       </c>
       <c r="G90">
-        <v>-0.01130855961050343</v>
+        <v>-0.005392736519113624</v>
       </c>
       <c r="H90">
-        <v>-0.05044112519130985</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>-0.06308595492690589</v>
+      </c>
+      <c r="I90">
+        <v>-0.03183915419612936</v>
+      </c>
+      <c r="J90">
+        <v>0.03138029487206817</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.08301519598846133</v>
+        <v>0.08948892563018375</v>
       </c>
       <c r="C91">
-        <v>0.02977632002681064</v>
+        <v>-0.02193241989449988</v>
       </c>
       <c r="D91">
-        <v>-0.005658725782657724</v>
+        <v>0.02166005029541034</v>
       </c>
       <c r="E91">
-        <v>-0.009295856170475108</v>
+        <v>-0.009095659753560185</v>
       </c>
       <c r="F91">
-        <v>0.0404456760553335</v>
+        <v>0.0100412176777577</v>
       </c>
       <c r="G91">
-        <v>0.04401714903727131</v>
+        <v>-0.02494595435335319</v>
       </c>
       <c r="H91">
-        <v>-0.01464898668869984</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>0.00201841110261627</v>
+      </c>
+      <c r="I91">
+        <v>0.03757482381271</v>
+      </c>
+      <c r="J91">
+        <v>-0.07546408024675966</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.06515951633455561</v>
+        <v>0.09584657492911466</v>
       </c>
       <c r="C92">
-        <v>-0.3587282887422152</v>
+        <v>0.3337211595859255</v>
       </c>
       <c r="D92">
-        <v>-0.02268454446839413</v>
+        <v>-0.1043377998385194</v>
       </c>
       <c r="E92">
-        <v>0.01812543637327912</v>
+        <v>0.002274025518543348</v>
       </c>
       <c r="F92">
-        <v>-0.06036510129751232</v>
+        <v>-0.0008493515574326975</v>
       </c>
       <c r="G92">
-        <v>-0.01094387959803418</v>
+        <v>0.01897248630076387</v>
       </c>
       <c r="H92">
-        <v>-0.02277691221208616</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.06364202178330239</v>
+      </c>
+      <c r="I92">
+        <v>-0.03096531055241974</v>
+      </c>
+      <c r="J92">
+        <v>-0.04916270740877069</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.08334062451982054</v>
+        <v>0.08874964709865317</v>
       </c>
       <c r="C93">
-        <v>-0.3119352807048287</v>
+        <v>0.3221998167525417</v>
       </c>
       <c r="D93">
-        <v>0.01520113530420251</v>
+        <v>-0.07874970285670728</v>
       </c>
       <c r="E93">
-        <v>0.001828011838807941</v>
+        <v>0.002593137501006169</v>
       </c>
       <c r="F93">
-        <v>-0.03980058798851241</v>
+        <v>-0.06093425540510829</v>
       </c>
       <c r="G93">
-        <v>0.02490522077856659</v>
+        <v>-0.01560921143479318</v>
       </c>
       <c r="H93">
-        <v>0.002506299972114682</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>-0.0356678896350127</v>
+      </c>
+      <c r="I93">
+        <v>-0.04126049643508312</v>
+      </c>
+      <c r="J93">
+        <v>0.01113538057160942</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.0989805504685697</v>
+        <v>0.1413936157614339</v>
       </c>
       <c r="C94">
-        <v>0.05028132115725738</v>
+        <v>-0.03708797050755509</v>
       </c>
       <c r="D94">
-        <v>-0.01217297029592912</v>
+        <v>0.02378824648509415</v>
       </c>
       <c r="E94">
-        <v>-0.03121373117466396</v>
+        <v>0.04513764634708564</v>
       </c>
       <c r="F94">
-        <v>0.07206456456214003</v>
+        <v>0.02518358376772115</v>
       </c>
       <c r="G94">
-        <v>0.05305411116849483</v>
+        <v>-0.007600135380344515</v>
       </c>
       <c r="H94">
-        <v>0.04036360857502741</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>0.000892554476614654</v>
+      </c>
+      <c r="I94">
+        <v>0.06827306913024561</v>
+      </c>
+      <c r="J94">
+        <v>-0.09200380695961881</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1270448719085063</v>
+        <v>0.1247202549433021</v>
       </c>
       <c r="C95">
-        <v>0.06786579644305088</v>
+        <v>-0.04946423061935851</v>
       </c>
       <c r="D95">
-        <v>-0.06099486997059183</v>
+        <v>0.02991299733298233</v>
       </c>
       <c r="E95">
-        <v>0.0661847358907291</v>
+        <v>0.03753425312495871</v>
       </c>
       <c r="F95">
-        <v>-0.08229848664472603</v>
+        <v>0.01385340060247294</v>
       </c>
       <c r="G95">
-        <v>-0.1213596453214308</v>
+        <v>-0.006351803051235849</v>
       </c>
       <c r="H95">
-        <v>0.05633870150416976</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>-0.09545952808058286</v>
+      </c>
+      <c r="I95">
+        <v>-0.1343632672035208</v>
+      </c>
+      <c r="J95">
+        <v>0.05768574858941557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01108311028266165</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.0005074623498791664</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.002335678198616016</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.004178203634401526</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.005298858183699816</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.01019413968289911</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.00122658307159264</v>
+      </c>
+      <c r="I96">
+        <v>-0.02616034470715943</v>
+      </c>
+      <c r="J96">
+        <v>0.008639834646243896</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.1447242106942593</v>
+        <v>0.1710890937940628</v>
       </c>
       <c r="C97">
-        <v>-0.04034468981478703</v>
+        <v>0.02543989032014169</v>
       </c>
       <c r="D97">
-        <v>0.1277210861600103</v>
+        <v>0.05174117800572842</v>
       </c>
       <c r="E97">
-        <v>-0.8820388641533792</v>
+        <v>0.09911009008667586</v>
       </c>
       <c r="F97">
-        <v>-0.09028699832079815</v>
+        <v>-0.04107106406119365</v>
       </c>
       <c r="G97">
-        <v>-0.1428187459127202</v>
+        <v>0.8811736864646716</v>
       </c>
       <c r="H97">
-        <v>-0.03160693577474408</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.1677297809501022</v>
+      </c>
+      <c r="I97">
+        <v>0.2642324481359091</v>
+      </c>
+      <c r="J97">
+        <v>0.1145659879663251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.3204301984097615</v>
+        <v>0.2646404226438756</v>
       </c>
       <c r="C98">
-        <v>0.06507886320434729</v>
+        <v>-0.01432263751921165</v>
       </c>
       <c r="D98">
-        <v>0.1680014056742324</v>
+        <v>-0.04869629315435798</v>
       </c>
       <c r="E98">
-        <v>0.117004913418909</v>
+        <v>-0.1102260849791842</v>
       </c>
       <c r="F98">
-        <v>-0.05966803006149668</v>
+        <v>0.1281272420724525</v>
       </c>
       <c r="G98">
-        <v>0.2356776212592133</v>
+        <v>-0.1440418927037806</v>
       </c>
       <c r="H98">
-        <v>-0.1778446129486151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>0.3189007051900141</v>
+      </c>
+      <c r="I98">
+        <v>0.1926077182967639</v>
+      </c>
+      <c r="J98">
+        <v>-0.2402986662896762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.08834012008922713</v>
+        <v>0.0585113508476646</v>
       </c>
       <c r="C99">
-        <v>0.01904509299981774</v>
+        <v>0.005703223690254589</v>
       </c>
       <c r="D99">
-        <v>-0.01176475005905492</v>
+        <v>0.01770165540069705</v>
       </c>
       <c r="E99">
-        <v>-0.001483370352123581</v>
+        <v>0.0428796923118408</v>
       </c>
       <c r="F99">
-        <v>0.02093444553969503</v>
+        <v>0.01188560693924336</v>
       </c>
       <c r="G99">
-        <v>-0.0006686748987030421</v>
+        <v>-0.009372217409924105</v>
       </c>
       <c r="H99">
-        <v>-0.07757054535407711</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.0247185180607114</v>
+      </c>
+      <c r="I99">
+        <v>0.03370559633417377</v>
+      </c>
+      <c r="J99">
+        <v>-0.03148313021788251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.08486915082578061</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2316743213415231</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.8786474321589072</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.2658956616469826</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.08801441692353298</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.1032160527950469</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.06012243520175222</v>
+      </c>
+      <c r="I100">
+        <v>-0.1171196752132836</v>
+      </c>
+      <c r="J100">
+        <v>-0.008537043178313771</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05787769655912159</v>
+        <v>0.03581818092410922</v>
       </c>
       <c r="C101">
-        <v>-0.002980301325309944</v>
+        <v>-0.005894177766957264</v>
       </c>
       <c r="D101">
-        <v>-0.03964898546320738</v>
+        <v>-0.005374620316090594</v>
       </c>
       <c r="E101">
-        <v>0.03001917381687207</v>
+        <v>0.008716731054856932</v>
       </c>
       <c r="F101">
-        <v>0.02603020399560735</v>
+        <v>-0.02640287208150788</v>
       </c>
       <c r="G101">
-        <v>-0.04115116020326119</v>
+        <v>-0.01301415163533007</v>
       </c>
       <c r="H101">
-        <v>0.1075107934489274</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.06436684389120349</v>
+      </c>
+      <c r="I101">
+        <v>-0.03226686709478693</v>
+      </c>
+      <c r="J101">
+        <v>-0.1117924242026408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
